--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il18-Il18rap.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Il18-Il18rap.xlsx
@@ -540,46 +540,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2184343333333333</v>
+        <v>0.1611213333333333</v>
       </c>
       <c r="H2">
-        <v>0.655303</v>
+        <v>0.483364</v>
       </c>
       <c r="I2">
-        <v>0.003667014339406969</v>
+        <v>0.001886845364621106</v>
       </c>
       <c r="J2">
-        <v>0.003688402732154508</v>
+        <v>0.001927375876930126</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.030895</v>
+        <v>0.104464</v>
       </c>
       <c r="N2">
-        <v>0.092685</v>
+        <v>0.313392</v>
       </c>
       <c r="O2">
-        <v>0.005621295871693869</v>
+        <v>0.02386241830158671</v>
       </c>
       <c r="P2">
-        <v>0.006026528037123699</v>
+        <v>0.02789865426061783</v>
       </c>
       <c r="Q2">
-        <v>0.006748528728333333</v>
+        <v>0.01683137896533334</v>
       </c>
       <c r="R2">
-        <v>0.060736758555</v>
+        <v>0.151482410688</v>
       </c>
       <c r="S2">
-        <v>2.061337256755061E-05</v>
+        <v>4.502469336099872E-05</v>
       </c>
       <c r="T2">
-        <v>2.22282624775328E-05</v>
+        <v>5.377119322072868E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2184343333333333</v>
+        <v>0.1611213333333333</v>
       </c>
       <c r="H3">
-        <v>0.655303</v>
+        <v>0.483364</v>
       </c>
       <c r="I3">
-        <v>0.003667014339406969</v>
+        <v>0.001886845364621106</v>
       </c>
       <c r="J3">
-        <v>0.003688402732154508</v>
+        <v>0.001927375876930126</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.391042</v>
       </c>
       <c r="O3">
-        <v>0.02371648897080341</v>
+        <v>0.02977487548338525</v>
       </c>
       <c r="P3">
-        <v>0.02542618089974565</v>
+        <v>0.03481118075566868</v>
       </c>
       <c r="Q3">
-        <v>0.02847233285844444</v>
+        <v>0.02100173614311111</v>
       </c>
       <c r="R3">
-        <v>0.256250995726</v>
+        <v>0.189015625288</v>
       </c>
       <c r="S3">
-        <v>8.696870513632333E-05</v>
+        <v>5.618058578799607E-05</v>
       </c>
       <c r="T3">
-        <v>9.378199509887662E-05</v>
+        <v>6.709423003593003E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2184343333333333</v>
+        <v>0.1611213333333333</v>
       </c>
       <c r="H4">
-        <v>0.655303</v>
+        <v>0.483364</v>
       </c>
       <c r="I4">
-        <v>0.003667014339406969</v>
+        <v>0.001886845364621106</v>
       </c>
       <c r="J4">
-        <v>0.003688402732154508</v>
+        <v>0.001927375876930126</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.279652333333333</v>
+        <v>1.913069666666667</v>
       </c>
       <c r="N4">
-        <v>3.838957</v>
+        <v>5.739209</v>
       </c>
       <c r="O4">
-        <v>0.2328306968302345</v>
+        <v>0.4369971341905063</v>
       </c>
       <c r="P4">
-        <v>0.2496151695939179</v>
+        <v>0.5109135128542726</v>
       </c>
       <c r="Q4">
-        <v>0.2795200043301111</v>
+        <v>0.3082363354528889</v>
       </c>
       <c r="R4">
-        <v>2.515680038971</v>
+        <v>2.774127019076</v>
       </c>
       <c r="S4">
-        <v>0.0008537935039305864</v>
+        <v>0.0008245460170000641</v>
       </c>
       <c r="T4">
-        <v>0.0009206812735174178</v>
+        <v>0.0009847223798729546</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2184343333333333</v>
+        <v>0.1611213333333333</v>
       </c>
       <c r="H5">
-        <v>0.655303</v>
+        <v>0.483364</v>
       </c>
       <c r="I5">
-        <v>0.003667014339406969</v>
+        <v>0.001886845364621106</v>
       </c>
       <c r="J5">
-        <v>0.003688402732154508</v>
+        <v>0.001927375876930126</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.108689</v>
+        <v>1.9000575</v>
       </c>
       <c r="N5">
-        <v>2.217378</v>
+        <v>3.800115</v>
       </c>
       <c r="O5">
-        <v>0.2017241915744426</v>
+        <v>0.4340248014824925</v>
       </c>
       <c r="P5">
-        <v>0.1441774902724418</v>
+        <v>0.3382922810269175</v>
       </c>
       <c r="Q5">
-        <v>0.242175742589</v>
+        <v>0.30613979781</v>
       </c>
       <c r="R5">
-        <v>1.453054455534</v>
+        <v>1.83683878686</v>
       </c>
       <c r="S5">
-        <v>0.0007397255031087595</v>
+        <v>0.0008189376848078364</v>
       </c>
       <c r="T5">
-        <v>0.0005317846490360545</v>
+        <v>0.0006520163818029477</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2184343333333333</v>
+        <v>0.1611213333333333</v>
       </c>
       <c r="H6">
-        <v>0.655303</v>
+        <v>0.483364</v>
       </c>
       <c r="I6">
-        <v>0.003667014339406969</v>
+        <v>0.001886845364621106</v>
       </c>
       <c r="J6">
-        <v>0.003688402732154508</v>
+        <v>0.001927375876930126</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.94648</v>
+        <v>0.329824</v>
       </c>
       <c r="N6">
-        <v>8.83944</v>
+        <v>0.989472</v>
       </c>
       <c r="O6">
-        <v>0.5361073267528257</v>
+        <v>0.07534077054202917</v>
       </c>
       <c r="P6">
-        <v>0.5747546311967708</v>
+        <v>0.0880843711025235</v>
       </c>
       <c r="Q6">
-        <v>0.6436123944799998</v>
+        <v>0.05314168264533334</v>
       </c>
       <c r="R6">
-        <v>5.79251155032</v>
+        <v>0.478275143808</v>
       </c>
       <c r="S6">
-        <v>0.001965913254663749</v>
+        <v>0.0001421563836642101</v>
       </c>
       <c r="T6">
-        <v>0.002119926552024626</v>
+        <v>0.0001697716919975649</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>19.906435</v>
       </c>
       <c r="I7">
-        <v>0.1113945496838451</v>
+        <v>0.07770616886214393</v>
       </c>
       <c r="J7">
-        <v>0.1120442745439226</v>
+        <v>0.07937534159490063</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.030895</v>
+        <v>0.104464</v>
       </c>
       <c r="N7">
-        <v>0.092685</v>
+        <v>0.313392</v>
       </c>
       <c r="O7">
-        <v>0.005621295871693869</v>
+        <v>0.02386241830158671</v>
       </c>
       <c r="P7">
-        <v>0.006026528037123699</v>
+        <v>0.02789865426061783</v>
       </c>
       <c r="Q7">
-        <v>0.2050031031083334</v>
+        <v>0.6931686086133334</v>
       </c>
       <c r="R7">
-        <v>1.845027927975</v>
+        <v>6.23851747752</v>
       </c>
       <c r="S7">
-        <v>0.0006261817222669963</v>
+        <v>0.001854257106002211</v>
       </c>
       <c r="T7">
-        <v>0.0006752379619381348</v>
+        <v>0.00221446521197457</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>19.906435</v>
       </c>
       <c r="I8">
-        <v>0.1113945496838451</v>
+        <v>0.07770616886214393</v>
       </c>
       <c r="J8">
-        <v>0.1120442745439226</v>
+        <v>0.07937534159490063</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.391042</v>
       </c>
       <c r="O8">
-        <v>0.02371648897080341</v>
+        <v>0.02977487548338525</v>
       </c>
       <c r="P8">
-        <v>0.02542618089974565</v>
+        <v>0.03481118075566868</v>
       </c>
       <c r="Q8">
         <v>0.8649169061411113</v>
@@ -948,10 +948,10 @@
         <v>7.784252155270001</v>
       </c>
       <c r="S8">
-        <v>0.002641887608984526</v>
+        <v>0.002313691502161244</v>
       </c>
       <c r="T8">
-        <v>0.002848857993334543</v>
+        <v>0.002763149363803032</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>19.906435</v>
       </c>
       <c r="I9">
-        <v>0.1113945496838451</v>
+        <v>0.07770616886214393</v>
       </c>
       <c r="J9">
-        <v>0.1120442745439226</v>
+        <v>0.07937534159490063</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.279652333333333</v>
+        <v>1.913069666666667</v>
       </c>
       <c r="N9">
-        <v>3.838957</v>
+        <v>5.739209</v>
       </c>
       <c r="O9">
-        <v>0.2328306968302345</v>
+        <v>0.4369971341905063</v>
       </c>
       <c r="P9">
-        <v>0.2496151695939179</v>
+        <v>0.5109135128542726</v>
       </c>
       <c r="Q9">
-        <v>8.491105332032779</v>
+        <v>12.69413232332389</v>
       </c>
       <c r="R9">
-        <v>76.41994798829501</v>
+        <v>114.247190909915</v>
       </c>
       <c r="S9">
-        <v>0.02593607062597984</v>
+        <v>0.03395737310168045</v>
       </c>
       <c r="T9">
-        <v>0.02796795059230875</v>
+        <v>0.04055393460825854</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,40 +1042,40 @@
         <v>19.906435</v>
       </c>
       <c r="I10">
-        <v>0.1113945496838451</v>
+        <v>0.07770616886214393</v>
       </c>
       <c r="J10">
-        <v>0.1120442745439226</v>
+        <v>0.07937534159490063</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.108689</v>
+        <v>1.9000575</v>
       </c>
       <c r="N10">
-        <v>2.217378</v>
+        <v>3.800115</v>
       </c>
       <c r="O10">
-        <v>0.2017241915744426</v>
+        <v>0.4340248014824925</v>
       </c>
       <c r="P10">
-        <v>0.1441774902724418</v>
+        <v>0.3382922810269175</v>
       </c>
       <c r="Q10">
-        <v>7.356681837905001</v>
+        <v>12.6077903733375</v>
       </c>
       <c r="R10">
-        <v>44.14009102743</v>
+        <v>75.64674224002501</v>
       </c>
       <c r="S10">
-        <v>0.02247097548077274</v>
+        <v>0.03372640451435706</v>
       </c>
       <c r="T10">
-        <v>0.01615426230313921</v>
+        <v>0.0268520653654297</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>19.906435</v>
       </c>
       <c r="I11">
-        <v>0.1113945496838451</v>
+        <v>0.07770616886214393</v>
       </c>
       <c r="J11">
-        <v>0.1120442745439226</v>
+        <v>0.07937534159490063</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.94648</v>
+        <v>0.329824</v>
       </c>
       <c r="N11">
-        <v>8.83944</v>
+        <v>0.989472</v>
       </c>
       <c r="O11">
-        <v>0.5361073267528257</v>
+        <v>0.07534077054202917</v>
       </c>
       <c r="P11">
-        <v>0.5747546311967708</v>
+        <v>0.0880843711025235</v>
       </c>
       <c r="Q11">
-        <v>19.5513041996</v>
+        <v>2.188540005813334</v>
       </c>
       <c r="R11">
-        <v>175.9617377964</v>
+        <v>19.69686005232</v>
       </c>
       <c r="S11">
-        <v>0.05971943424584104</v>
+        <v>0.005854442637942959</v>
       </c>
       <c r="T11">
-        <v>0.06439796569320198</v>
+        <v>0.006991727045434796</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>24.76501</v>
+        <v>40.78183766666667</v>
       </c>
       <c r="H12">
-        <v>74.29503</v>
+        <v>122.345513</v>
       </c>
       <c r="I12">
-        <v>0.4157480438158698</v>
+        <v>0.4775843134495767</v>
       </c>
       <c r="J12">
-        <v>0.4181729545530863</v>
+        <v>0.4878430963142499</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.030895</v>
+        <v>0.104464</v>
       </c>
       <c r="N12">
-        <v>0.092685</v>
+        <v>0.313392</v>
       </c>
       <c r="O12">
-        <v>0.005621295871693869</v>
+        <v>0.02386241830158671</v>
       </c>
       <c r="P12">
-        <v>0.006026528037123699</v>
+        <v>0.02789865426061783</v>
       </c>
       <c r="Q12">
-        <v>0.7651149839500001</v>
+        <v>4.260233890010666</v>
       </c>
       <c r="R12">
-        <v>6.88603485555</v>
+        <v>38.342105010096</v>
       </c>
       <c r="S12">
-        <v>0.002337042762366951</v>
+        <v>0.0113963166618099</v>
       </c>
       <c r="T12">
-        <v>0.002520131034981029</v>
+        <v>0.01361016587750054</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>24.76501</v>
+        <v>40.78183766666667</v>
       </c>
       <c r="H13">
-        <v>74.29503</v>
+        <v>122.345513</v>
       </c>
       <c r="I13">
-        <v>0.4157480438158698</v>
+        <v>0.4775843134495767</v>
       </c>
       <c r="J13">
-        <v>0.4181729545530863</v>
+        <v>0.4878430963142499</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.391042</v>
       </c>
       <c r="O13">
-        <v>0.02371648897080341</v>
+        <v>0.02977487548338525</v>
       </c>
       <c r="P13">
-        <v>0.02542618089974565</v>
+        <v>0.03481118075566868</v>
       </c>
       <c r="Q13">
-        <v>3.228053013473334</v>
+        <v>5.315803788282889</v>
       </c>
       <c r="R13">
-        <v>29.05247712126</v>
+        <v>47.842234094546</v>
       </c>
       <c r="S13">
-        <v>0.00986008389579217</v>
+        <v>0.01422001346577918</v>
       </c>
       <c r="T13">
-        <v>0.01063254118984789</v>
+        <v>0.01698239420620044</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>24.76501</v>
+        <v>40.78183766666667</v>
       </c>
       <c r="H14">
-        <v>74.29503</v>
+        <v>122.345513</v>
       </c>
       <c r="I14">
-        <v>0.4157480438158698</v>
+        <v>0.4775843134495767</v>
       </c>
       <c r="J14">
-        <v>0.4181729545530863</v>
+        <v>0.4878430963142499</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.279652333333333</v>
+        <v>1.913069666666667</v>
       </c>
       <c r="N14">
-        <v>3.838957</v>
+        <v>5.739209</v>
       </c>
       <c r="O14">
-        <v>0.2328306968302345</v>
+        <v>0.4369971341905063</v>
       </c>
       <c r="P14">
-        <v>0.2496151695939179</v>
+        <v>0.5109135128542726</v>
       </c>
       <c r="Q14">
-        <v>31.69060283152334</v>
+        <v>78.01849659102412</v>
       </c>
       <c r="R14">
-        <v>285.21542548371</v>
+        <v>702.166469319217</v>
       </c>
       <c r="S14">
-        <v>0.09679890674745582</v>
+        <v>0.2087029763118055</v>
       </c>
       <c r="T14">
-        <v>0.1043823129703584</v>
+        <v>0.2492456300596186</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>24.76501</v>
+        <v>40.78183766666667</v>
       </c>
       <c r="H15">
-        <v>74.29503</v>
+        <v>122.345513</v>
       </c>
       <c r="I15">
-        <v>0.4157480438158698</v>
+        <v>0.4775843134495767</v>
       </c>
       <c r="J15">
-        <v>0.4181729545530863</v>
+        <v>0.4878430963142499</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>1.108689</v>
+        <v>1.9000575</v>
       </c>
       <c r="N15">
-        <v>2.217378</v>
+        <v>3.800115</v>
       </c>
       <c r="O15">
-        <v>0.2017241915744426</v>
+        <v>0.4340248014824925</v>
       </c>
       <c r="P15">
-        <v>0.1441774902724418</v>
+        <v>0.3382922810269175</v>
       </c>
       <c r="Q15">
-        <v>27.45669417189</v>
+        <v>77.4878365223325</v>
       </c>
       <c r="R15">
-        <v>164.74016503134</v>
+        <v>464.927019133995</v>
       </c>
       <c r="S15">
-        <v>0.08386643803741228</v>
+        <v>0.207283436836105</v>
       </c>
       <c r="T15">
-        <v>0.06029112708727586</v>
+        <v>0.1650335538353818</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>24.76501</v>
+        <v>40.78183766666667</v>
       </c>
       <c r="H16">
-        <v>74.29503</v>
+        <v>122.345513</v>
       </c>
       <c r="I16">
-        <v>0.4157480438158698</v>
+        <v>0.4775843134495767</v>
       </c>
       <c r="J16">
-        <v>0.4181729545530863</v>
+        <v>0.4878430963142499</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.94648</v>
+        <v>0.329824</v>
       </c>
       <c r="N16">
-        <v>8.83944</v>
+        <v>0.989472</v>
       </c>
       <c r="O16">
-        <v>0.5361073267528257</v>
+        <v>0.07534077054202917</v>
       </c>
       <c r="P16">
-        <v>0.5747546311967708</v>
+        <v>0.0880843711025235</v>
       </c>
       <c r="Q16">
-        <v>72.9696066648</v>
+        <v>13.45082882657067</v>
       </c>
       <c r="R16">
-        <v>656.7264599831999</v>
+        <v>121.057459439136</v>
       </c>
       <c r="S16">
-        <v>0.2228855723728426</v>
+        <v>0.0359815701740771</v>
       </c>
       <c r="T16">
-        <v>0.2403468422706231</v>
+        <v>0.0429713523355485</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.0362615</v>
+        <v>5.387083000000001</v>
       </c>
       <c r="H17">
-        <v>2.072523</v>
+        <v>10.774166</v>
       </c>
       <c r="I17">
-        <v>0.01739646749614472</v>
+        <v>0.06308657194606442</v>
       </c>
       <c r="J17">
-        <v>0.01166528994320652</v>
+        <v>0.04296113827765565</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.030895</v>
+        <v>0.104464</v>
       </c>
       <c r="N17">
-        <v>0.092685</v>
+        <v>0.313392</v>
       </c>
       <c r="O17">
-        <v>0.005621295871693869</v>
+        <v>0.02386241830158671</v>
       </c>
       <c r="P17">
-        <v>0.006026528037123699</v>
+        <v>0.02789865426061783</v>
       </c>
       <c r="Q17">
-        <v>0.03201529904250001</v>
+        <v>0.5627562385120001</v>
       </c>
       <c r="R17">
-        <v>0.192091794255</v>
+        <v>3.376537431072</v>
       </c>
       <c r="S17">
-        <v>9.779069091813492E-05</v>
+        <v>0.001505398168990134</v>
       </c>
       <c r="T17">
-        <v>7.030119690391119E-05</v>
+        <v>0.00119855794345091</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.0362615</v>
+        <v>5.387083000000001</v>
       </c>
       <c r="H18">
-        <v>2.072523</v>
+        <v>10.774166</v>
       </c>
       <c r="I18">
-        <v>0.01739646749614472</v>
+        <v>0.06308657194606442</v>
       </c>
       <c r="J18">
-        <v>0.01166528994320652</v>
+        <v>0.04296113827765565</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.391042</v>
       </c>
       <c r="O18">
-        <v>0.02371648897080341</v>
+        <v>0.02977487548338525</v>
       </c>
       <c r="P18">
-        <v>0.02542618089974565</v>
+        <v>0.03481118075566868</v>
       </c>
       <c r="Q18">
-        <v>0.135073923161</v>
+        <v>0.7021919034953334</v>
       </c>
       <c r="R18">
-        <v>0.8104435389660002</v>
+        <v>4.213151420972</v>
       </c>
       <c r="S18">
-        <v>0.0004125831295032564</v>
+        <v>0.001878394824367693</v>
       </c>
       <c r="T18">
-        <v>0.0002966037723439525</v>
+        <v>0.001495527950052747</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.0362615</v>
+        <v>5.387083000000001</v>
       </c>
       <c r="H19">
-        <v>2.072523</v>
+        <v>10.774166</v>
       </c>
       <c r="I19">
-        <v>0.01739646749614472</v>
+        <v>0.06308657194606442</v>
       </c>
       <c r="J19">
-        <v>0.01166528994320652</v>
+        <v>0.04296113827765565</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.279652333333333</v>
+        <v>1.913069666666667</v>
       </c>
       <c r="N19">
-        <v>3.838957</v>
+        <v>5.739209</v>
       </c>
       <c r="O19">
-        <v>0.2328306968302345</v>
+        <v>0.4369971341905063</v>
       </c>
       <c r="P19">
-        <v>0.2496151695939179</v>
+        <v>0.5109135128542726</v>
       </c>
       <c r="Q19">
-        <v>1.3260544464185</v>
+        <v>10.30586507911567</v>
       </c>
       <c r="R19">
-        <v>7.956326678511002</v>
+        <v>61.835190474694</v>
       </c>
       <c r="S19">
-        <v>0.0040504316495119</v>
+        <v>0.02756865114633334</v>
       </c>
       <c r="T19">
-        <v>0.00291183332753572</v>
+        <v>0.0219494260736552</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.0362615</v>
+        <v>5.387083000000001</v>
       </c>
       <c r="H20">
-        <v>2.072523</v>
+        <v>10.774166</v>
       </c>
       <c r="I20">
-        <v>0.01739646749614472</v>
+        <v>0.06308657194606442</v>
       </c>
       <c r="J20">
-        <v>0.01166528994320652</v>
+        <v>0.04296113827765565</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>1.108689</v>
+        <v>1.9000575</v>
       </c>
       <c r="N20">
-        <v>2.217378</v>
+        <v>3.800115</v>
       </c>
       <c r="O20">
-        <v>0.2017241915744426</v>
+        <v>0.4340248014824925</v>
       </c>
       <c r="P20">
-        <v>0.1441774902724418</v>
+        <v>0.3382922810269175</v>
       </c>
       <c r="Q20">
-        <v>1.1488917261735</v>
+        <v>10.2357674572725</v>
       </c>
       <c r="R20">
-        <v>4.595566904694001</v>
+        <v>40.94306982909</v>
       </c>
       <c r="S20">
-        <v>0.003509288341910862</v>
+        <v>0.02738113686510158</v>
       </c>
       <c r="T20">
-        <v>0.001681872227311871</v>
+        <v>0.01453342146346095</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.0362615</v>
+        <v>5.387083000000001</v>
       </c>
       <c r="H21">
-        <v>2.072523</v>
+        <v>10.774166</v>
       </c>
       <c r="I21">
-        <v>0.01739646749614472</v>
+        <v>0.06308657194606442</v>
       </c>
       <c r="J21">
-        <v>0.01166528994320652</v>
+        <v>0.04296113827765565</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.94648</v>
+        <v>0.329824</v>
       </c>
       <c r="N21">
-        <v>8.83944</v>
+        <v>0.989472</v>
       </c>
       <c r="O21">
-        <v>0.5361073267528257</v>
+        <v>0.07534077054202917</v>
       </c>
       <c r="P21">
-        <v>0.5747546311967708</v>
+        <v>0.0880843711025235</v>
       </c>
       <c r="Q21">
-        <v>3.05332378452</v>
+        <v>1.776789263392</v>
       </c>
       <c r="R21">
-        <v>18.31994270712</v>
+        <v>10.660735580352</v>
       </c>
       <c r="S21">
-        <v>0.009326373684300572</v>
+        <v>0.004752990941271654</v>
       </c>
       <c r="T21">
-        <v>0.006704679419111061</v>
+        <v>0.003784204847035847</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>26.91216766666667</v>
+        <v>32.42639166666667</v>
       </c>
       <c r="H22">
-        <v>80.736503</v>
+        <v>97.279175</v>
       </c>
       <c r="I22">
-        <v>0.4517939246647333</v>
+        <v>0.379736100377594</v>
       </c>
       <c r="J22">
-        <v>0.45442907822763</v>
+        <v>0.3878930479362637</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>0.030895</v>
+        <v>0.104464</v>
       </c>
       <c r="N22">
-        <v>0.092685</v>
+        <v>0.313392</v>
       </c>
       <c r="O22">
-        <v>0.005621295871693869</v>
+        <v>0.02386241830158671</v>
       </c>
       <c r="P22">
-        <v>0.006026528037123699</v>
+        <v>0.02789865426061783</v>
       </c>
       <c r="Q22">
-        <v>0.8314514200616667</v>
+        <v>3.387390579066667</v>
       </c>
       <c r="R22">
-        <v>7.483062780555001</v>
+        <v>30.4865152116</v>
       </c>
       <c r="S22">
-        <v>0.002539667323574236</v>
+        <v>0.009061421671423467</v>
       </c>
       <c r="T22">
-        <v>0.002738629580823091</v>
+        <v>0.01082169403447108</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>26.91216766666667</v>
+        <v>32.42639166666667</v>
       </c>
       <c r="H23">
-        <v>80.736503</v>
+        <v>97.279175</v>
       </c>
       <c r="I23">
-        <v>0.4517939246647333</v>
+        <v>0.379736100377594</v>
       </c>
       <c r="J23">
-        <v>0.45442907822763</v>
+        <v>0.3878930479362637</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.391042</v>
       </c>
       <c r="O23">
-        <v>0.02371648897080341</v>
+        <v>0.02977487548338525</v>
       </c>
       <c r="P23">
-        <v>0.02542618089974565</v>
+        <v>0.03481118075566868</v>
       </c>
       <c r="Q23">
-        <v>3.507929289569556</v>
+        <v>4.226693683372223</v>
       </c>
       <c r="R23">
-        <v>31.571363606126</v>
+        <v>38.04024315035</v>
       </c>
       <c r="S23">
-        <v>0.01071496563138714</v>
+        <v>0.01130659510528914</v>
       </c>
       <c r="T23">
-        <v>0.01155439594912039</v>
+        <v>0.01350301500557653</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>26.91216766666667</v>
+        <v>32.42639166666667</v>
       </c>
       <c r="H24">
-        <v>80.736503</v>
+        <v>97.279175</v>
       </c>
       <c r="I24">
-        <v>0.4517939246647333</v>
+        <v>0.379736100377594</v>
       </c>
       <c r="J24">
-        <v>0.45442907822763</v>
+        <v>0.3878930479362637</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.279652333333333</v>
+        <v>1.913069666666667</v>
       </c>
       <c r="N24">
-        <v>3.838957</v>
+        <v>5.739209</v>
       </c>
       <c r="O24">
-        <v>0.2328306968302345</v>
+        <v>0.4369971341905063</v>
       </c>
       <c r="P24">
-        <v>0.2496151695939179</v>
+        <v>0.5109135128542726</v>
       </c>
       <c r="Q24">
-        <v>34.43821814970789</v>
+        <v>62.03394629695278</v>
       </c>
       <c r="R24">
-        <v>309.943963347371</v>
+        <v>558.305516672575</v>
       </c>
       <c r="S24">
-        <v>0.1051914943033563</v>
+        <v>0.165943587613687</v>
       </c>
       <c r="T24">
-        <v>0.1134323914301977</v>
+        <v>0.1981797997328672</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>26.91216766666667</v>
+        <v>32.42639166666667</v>
       </c>
       <c r="H25">
-        <v>80.736503</v>
+        <v>97.279175</v>
       </c>
       <c r="I25">
-        <v>0.4517939246647333</v>
+        <v>0.379736100377594</v>
       </c>
       <c r="J25">
-        <v>0.45442907822763</v>
+        <v>0.3878930479362637</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>1.108689</v>
+        <v>1.9000575</v>
       </c>
       <c r="N25">
-        <v>2.217378</v>
+        <v>3.800115</v>
       </c>
       <c r="O25">
-        <v>0.2017241915744426</v>
+        <v>0.4340248014824925</v>
       </c>
       <c r="P25">
-        <v>0.1441774902724418</v>
+        <v>0.3382922810269175</v>
       </c>
       <c r="Q25">
-        <v>29.837224258189</v>
+        <v>61.6120086841875</v>
       </c>
       <c r="R25">
-        <v>179.023345549134</v>
+        <v>369.672052105125</v>
       </c>
       <c r="S25">
-        <v>0.09113776421123795</v>
+        <v>0.164814885582121</v>
       </c>
       <c r="T25">
-        <v>0.06551844400567884</v>
+        <v>0.1312212239808421</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>26.91216766666667</v>
+        <v>32.42639166666667</v>
       </c>
       <c r="H26">
-        <v>80.736503</v>
+        <v>97.279175</v>
       </c>
       <c r="I26">
-        <v>0.4517939246647333</v>
+        <v>0.379736100377594</v>
       </c>
       <c r="J26">
-        <v>0.45442907822763</v>
+        <v>0.3878930479362637</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.94648</v>
+        <v>0.329824</v>
       </c>
       <c r="N26">
-        <v>8.83944</v>
+        <v>0.989472</v>
       </c>
       <c r="O26">
-        <v>0.5361073267528257</v>
+        <v>0.07534077054202917</v>
       </c>
       <c r="P26">
-        <v>0.5747546311967708</v>
+        <v>0.0880843711025235</v>
       </c>
       <c r="Q26">
-        <v>79.29616378647999</v>
+        <v>10.69500220506667</v>
       </c>
       <c r="R26">
-        <v>713.66547407832</v>
+        <v>96.2550198456</v>
       </c>
       <c r="S26">
-        <v>0.2422100331951777</v>
+        <v>0.02860961040507326</v>
       </c>
       <c r="T26">
-        <v>0.26118521726181</v>
+        <v>0.03416731518250678</v>
       </c>
     </row>
   </sheetData>
